--- a/biology/Médecine/Eugène_Charles_Bonamy/Eugène_Charles_Bonamy.xlsx
+++ b/biology/Médecine/Eugène_Charles_Bonamy/Eugène_Charles_Bonamy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Charles_Bonamy</t>
+          <t>Eugène_Charles_Bonamy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Charles Bonamy, né le 12 janvier 1808 à Nantes et mort 27 septembre 1861 à Beaufort-en-Vallée[1], est un médecin français, auteur d'ouvrages de médecine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Charles Bonamy, né le 12 janvier 1808 à Nantes et mort 27 septembre 1861 à Beaufort-en-Vallée, est un médecin français, auteur d'ouvrages de médecine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Charles_Bonamy</t>
+          <t>Eugène_Charles_Bonamy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Pierre Bonamy, capitaine corsaire, et de Fortunée Dosset du Breuil, et petit-fils de François Bonamy, il est élève au lycée de Nantes[2] et soutient sa thèse de doctorat de médecine en 1831, à Paris. Durant cette période, sous l'influence de son frère Auguste Bonamy, il se rapproche du saint-simonisme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Pierre Bonamy, capitaine corsaire, et de Fortunée Dosset du Breuil, et petit-fils de François Bonamy, il est élève au lycée de Nantes et soutient sa thèse de doctorat de médecine en 1831, à Paris. Durant cette période, sous l'influence de son frère Auguste Bonamy, il se rapproche du saint-simonisme.
 Il devient le médecin du dépôt de mendicité, et professeur à l'École de médecine de Nantes.
 Il présida à la Société académique et fonda la Société industrielle de Nantes.
 Il épouse Victoire Bourgeois de L'Epinay, fille du général-baron Pierre-Joseph Bourgeois et de Victoire Guillon.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Charles_Bonamy</t>
+          <t>Eugène_Charles_Bonamy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nantes au XIXe siècle. Statistique, topographique, industrielle et morale,  faisant suite à l'histoire des Progrès de la Ville de Nantes. (avec la coll.d'Ange Guépin). Nantes, Prosper Sébire, 1835.
 Compte rendu des maladies éprouvées par les ouvriers actionnaires des secours mutuels, depuis le 1er décembre 1840 jusqu'au 1er décembre 1841. Nantes : impr. de C. Mellinet, 1843.
